--- a/excel_files/3.6.1.xlsx
+++ b/excel_files/3.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>3.6.1 Калктын 100 000ине алгандагы жол-транспорт кырсыктарынын натыйжасындагы өлүм</t>
+  </si>
+  <si>
+    <t>эркектер</t>
+  </si>
+  <si>
+    <t>мужчины</t>
+  </si>
+  <si>
+    <t> men</t>
+  </si>
+  <si>
+    <t>аялдар</t>
+  </si>
+  <si>
+    <t>женщины</t>
+  </si>
+  <si>
+    <t> women</t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,15 +364,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -363,6 +375,9 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -672,11 +687,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -686,7 +699,7 @@
     <col min="4" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.5" customHeight="1">
+    <row r="1" spans="1:17" ht="43.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -708,7 +721,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -724,7 +737,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -773,8 +786,11 @@
       <c r="P3" s="21">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -817,461 +833,1551 @@
       <c r="N4" s="23">
         <v>13.7</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="26">
         <v>11</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="26">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="9" t="s">
+      <c r="Q4" s="26">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="22">
+        <v>28.089887640449433</v>
+      </c>
+      <c r="E5" s="22">
+        <v>30.111297453880166</v>
+      </c>
+      <c r="F5" s="22">
+        <v>27.816464034328302</v>
+      </c>
+      <c r="G5" s="22">
+        <v>24.728543804849025</v>
+      </c>
+      <c r="H5" s="22">
+        <v>25.526132148235209</v>
+      </c>
+      <c r="I5" s="22">
+        <v>25.41241020828069</v>
+      </c>
+      <c r="J5" s="22">
+        <v>26.876967146444109</v>
+      </c>
+      <c r="K5" s="22">
+        <v>23.348460179443656</v>
+      </c>
+      <c r="L5" s="22">
+        <v>23.093356844925225</v>
+      </c>
+      <c r="M5" s="22">
+        <v>19.889099179865195</v>
+      </c>
+      <c r="N5" s="26">
+        <v>20.701777228045053</v>
+      </c>
+      <c r="O5" s="26">
+        <v>16.264310999138949</v>
+      </c>
+      <c r="P5" s="26">
+        <v>19.290797852416034</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="22">
+        <v>8.9151932873838788</v>
+      </c>
+      <c r="E6" s="22">
+        <v>8.6453192831434844</v>
+      </c>
+      <c r="F6" s="22">
+        <v>7.5551969485806501</v>
+      </c>
+      <c r="G6" s="22">
+        <v>7.6122811469170273</v>
+      </c>
+      <c r="H6" s="22">
+        <v>8.5243553008595985</v>
+      </c>
+      <c r="I6" s="22">
+        <v>7.8246158184125196</v>
+      </c>
+      <c r="J6" s="22">
+        <v>9.1279994467879124</v>
+      </c>
+      <c r="K6" s="22">
+        <v>7.3242684208741649</v>
+      </c>
+      <c r="L6" s="22">
+        <v>8.2771000232689556</v>
+      </c>
+      <c r="M6" s="22">
+        <v>6.9424073530849713</v>
+      </c>
+      <c r="N6" s="26">
+        <v>6.9091258036656749</v>
+      </c>
+      <c r="O6" s="26">
+        <v>5.8041036581539815</v>
+      </c>
+      <c r="P6" s="26">
+        <v>4.8264625411171567</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D7" s="24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E7" s="24">
         <v>13.7</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F7" s="24">
         <v>15.8</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G7" s="24">
+        <v>13.031550068587105</v>
+      </c>
+      <c r="H7" s="24">
+        <v>12.587098224320073</v>
+      </c>
+      <c r="I7" s="24">
+        <v>12.780960775672101</v>
+      </c>
+      <c r="J7" s="24">
+        <v>14.645703209132027</v>
+      </c>
+      <c r="K7" s="24">
+        <v>11.994949494949497</v>
+      </c>
+      <c r="L7" s="24">
+        <v>15.824085491163173</v>
+      </c>
+      <c r="M7" s="24">
+        <v>11.041959445894397</v>
+      </c>
+      <c r="N7" s="27">
+        <v>13.569321533923304</v>
+      </c>
+      <c r="O7" s="27">
+        <v>9.0489025798998846</v>
+      </c>
+      <c r="P7" s="27">
+        <v>10.165662650602409</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="24">
+        <v>11.676786548341896</v>
+      </c>
+      <c r="E8" s="24">
+        <v>21.75925925925926</v>
+      </c>
+      <c r="F8" s="24">
+        <v>23.74429223744292</v>
+      </c>
+      <c r="G8" s="24">
+        <v>21.142600089968511</v>
+      </c>
+      <c r="H8" s="24">
+        <v>18.600531443755536</v>
+      </c>
+      <c r="I8" s="24">
+        <v>19.097222222222221</v>
+      </c>
+      <c r="J8" s="24">
+        <v>22.467147096227215</v>
+      </c>
+      <c r="K8" s="24">
+        <v>19.453642384105958</v>
+      </c>
+      <c r="L8" s="24">
+        <v>25.050505050505052</v>
+      </c>
+      <c r="M8" s="24">
+        <v>16.96921862667719</v>
+      </c>
+      <c r="N8" s="27">
+        <v>20.865533230293661</v>
+      </c>
+      <c r="O8" s="27">
+        <v>14.366729678638942</v>
+      </c>
+      <c r="P8" s="27">
+        <v>17.36881005173688</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="24">
+        <v>4.8285852245292133</v>
+      </c>
+      <c r="E9" s="24">
+        <v>5.270723526593196</v>
+      </c>
+      <c r="F9" s="24">
+        <v>7.5685903500473035</v>
+      </c>
+      <c r="G9" s="24">
+        <v>4.6490004649000465</v>
+      </c>
+      <c r="H9" s="24">
+        <v>6.3897763578274756</v>
+      </c>
+      <c r="I9" s="24">
+        <v>6.2667860340196961</v>
+      </c>
+      <c r="J9" s="24">
+        <v>6.5674255691768826</v>
+      </c>
+      <c r="K9" s="24">
+        <v>4.2808219178082192</v>
+      </c>
+      <c r="L9" s="24">
+        <v>6.2735257214554583</v>
+      </c>
+      <c r="M9" s="24">
+        <v>4.9039640375970572</v>
+      </c>
+      <c r="N9" s="27">
+        <v>6.0072086503804574</v>
+      </c>
+      <c r="O9" s="27">
+        <v>3.5307963907414668</v>
+      </c>
+      <c r="P9" s="27">
+        <v>2.6861089792785875</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="24">
+        <v>13.2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>16.7</v>
+      </c>
+      <c r="F10" s="24">
+        <v>16.5</v>
+      </c>
+      <c r="G10" s="24">
+        <v>12.913875133508107</v>
+      </c>
+      <c r="H10" s="24">
+        <v>15.209489190740385</v>
+      </c>
+      <c r="I10" s="24">
+        <v>17.456593148756454</v>
+      </c>
+      <c r="J10" s="24">
+        <v>14.613970588235295</v>
+      </c>
+      <c r="K10" s="24">
+        <v>11.793302124594888</v>
+      </c>
+      <c r="L10" s="24">
+        <v>12.693935119887165</v>
+      </c>
+      <c r="M10" s="24">
+        <v>11.0573600552868</v>
+      </c>
+      <c r="N10" s="27">
+        <v>8.6462659998304652</v>
+      </c>
+      <c r="O10" s="27">
+        <v>7.9002079002079011</v>
+      </c>
+      <c r="P10" s="27">
+        <v>8.6417740094570359</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="24">
+        <v>21.453147136207246</v>
+      </c>
+      <c r="E11" s="24">
+        <v>27.6</v>
+      </c>
+      <c r="F11" s="24">
+        <v>25.989367985823979</v>
+      </c>
+      <c r="G11" s="24">
+        <v>19.592628516003881</v>
+      </c>
+      <c r="H11" s="24">
+        <v>23.11807413068399</v>
+      </c>
+      <c r="I11" s="24">
+        <v>25.857223159078131</v>
+      </c>
+      <c r="J11" s="24">
+        <v>21.272693929946822</v>
+      </c>
+      <c r="K11" s="24">
+        <v>18.847603661820138</v>
+      </c>
+      <c r="L11" s="24">
+        <v>18.437225636523266</v>
+      </c>
+      <c r="M11" s="24">
+        <v>16.678129298486933</v>
+      </c>
+      <c r="N11" s="27">
+        <v>12.814027988534818</v>
+      </c>
+      <c r="O11" s="27">
+        <v>10.74557778145148</v>
+      </c>
+      <c r="P11" s="27">
+        <v>13.93389500972132</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="24">
+        <v>4.8592832557197818</v>
+      </c>
+      <c r="E12" s="24">
+        <v>5.8058058058058064</v>
+      </c>
+      <c r="F12" s="24">
+        <v>6.9019917176099383</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6.2208398133748055</v>
+      </c>
+      <c r="H12" s="24">
+        <v>7.2796934865900385</v>
+      </c>
+      <c r="I12" s="24">
+        <v>9.0259496051147057</v>
+      </c>
+      <c r="J12" s="24">
+        <v>7.9233462318039436</v>
+      </c>
+      <c r="K12" s="24">
+        <v>4.6956835831677797</v>
+      </c>
+      <c r="L12" s="24">
+        <v>6.9038767923526283</v>
+      </c>
+      <c r="M12" s="24">
+        <v>5.3819444444444446</v>
+      </c>
+      <c r="N12" s="27">
+        <v>4.4323218547562222</v>
+      </c>
+      <c r="O12" s="27">
+        <v>5.0200803212851408</v>
+      </c>
+      <c r="P12" s="27">
+        <v>3.2819166393173616</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24">
+        <v>32.5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>29.3</v>
+      </c>
+      <c r="F13" s="24">
+        <v>23.2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>27.319936780311583</v>
+      </c>
+      <c r="H13" s="24">
+        <v>32.489356934797222</v>
+      </c>
+      <c r="I13" s="24">
+        <v>26.625249611715113</v>
+      </c>
+      <c r="J13" s="24">
+        <v>35.307017543859651</v>
+      </c>
+      <c r="K13" s="24">
+        <v>23.850823937554207</v>
+      </c>
+      <c r="L13" s="24">
+        <v>27.837259100642399</v>
+      </c>
+      <c r="M13" s="24">
+        <v>22.813688212927758</v>
+      </c>
+      <c r="N13" s="27">
+        <v>25.838716399249844</v>
+      </c>
+      <c r="O13" s="27">
+        <v>18.503289473684212</v>
+      </c>
+      <c r="P13" s="27">
+        <v>19.476567255021305</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="24">
+        <v>53.295932678821877</v>
+      </c>
+      <c r="E14" s="24">
+        <v>44.588945657222482</v>
+      </c>
+      <c r="F14" s="24">
+        <v>39.576622181316154</v>
+      </c>
+      <c r="G14" s="24">
+        <v>43.79562043795621</v>
+      </c>
+      <c r="H14" s="24">
+        <v>47.468354430379748</v>
+      </c>
+      <c r="I14" s="24">
+        <v>39.37360178970917</v>
+      </c>
+      <c r="J14" s="24">
+        <v>51.701281484754745</v>
+      </c>
+      <c r="K14" s="24">
+        <v>35.37117903930131</v>
+      </c>
+      <c r="L14" s="24">
+        <v>42.672413793103445</v>
+      </c>
+      <c r="M14" s="24">
+        <v>36.53355989804588</v>
+      </c>
+      <c r="N14" s="27">
+        <v>41.457286432160799</v>
+      </c>
+      <c r="O14" s="27">
+        <v>29.727497935590424</v>
+      </c>
+      <c r="P14" s="27">
+        <v>32.17922606924644</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="24">
+        <v>12.26158038147139</v>
+      </c>
+      <c r="E15" s="24">
+        <v>14.473089099954773</v>
+      </c>
+      <c r="F15" s="24">
+        <v>7.2007200720072007</v>
+      </c>
+      <c r="G15" s="24">
+        <v>11.175681716584712</v>
+      </c>
+      <c r="H15" s="24">
+        <v>17.769880053309642</v>
+      </c>
+      <c r="I15" s="24">
+        <v>14.084507042253522</v>
+      </c>
+      <c r="J15" s="24">
+        <v>19.15542011319112</v>
+      </c>
+      <c r="K15" s="24">
+        <v>12.489233419465979</v>
+      </c>
+      <c r="L15" s="24">
+        <v>13.191489361702127</v>
+      </c>
+      <c r="M15" s="24">
+        <v>9.2436974789915975</v>
+      </c>
+      <c r="N15" s="27">
+        <v>10.369141435089174</v>
+      </c>
+      <c r="O15" s="27">
+        <v>7.3710073710073711</v>
+      </c>
+      <c r="P15" s="27">
+        <v>6.8714632174616002</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="24">
+        <v>29.2</v>
+      </c>
+      <c r="E16" s="24">
+        <v>26.4</v>
+      </c>
+      <c r="F16" s="24">
+        <v>28.3</v>
+      </c>
+      <c r="G16" s="24">
+        <v>27.617951668584585</v>
+      </c>
+      <c r="H16" s="24">
+        <v>26.934749620637326</v>
+      </c>
+      <c r="I16" s="24">
+        <v>27.016885553470921</v>
+      </c>
+      <c r="J16" s="24">
+        <v>24.84241750092696</v>
+      </c>
+      <c r="K16" s="24">
+        <v>28.937728937728942</v>
+      </c>
+      <c r="L16" s="24">
+        <v>30.785947120608469</v>
+      </c>
+      <c r="M16" s="24">
+        <v>19.685039370078741</v>
+      </c>
+      <c r="N16" s="27">
+        <v>26.548672566371685</v>
+      </c>
+      <c r="O16" s="27">
+        <v>24.877365101611776</v>
+      </c>
+      <c r="P16" s="27">
+        <v>23.586541796739507</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="24">
+        <v>43.947571318427144</v>
+      </c>
+      <c r="E17" s="24">
+        <v>43.879907621247114</v>
+      </c>
+      <c r="F17" s="24">
+        <v>43.644716692189895</v>
+      </c>
+      <c r="G17" s="24">
+        <v>43.939393939393938</v>
+      </c>
+      <c r="H17" s="24">
+        <v>39.67065868263473</v>
+      </c>
+      <c r="I17" s="24">
+        <v>45.857988165680482</v>
+      </c>
+      <c r="J17" s="24">
+        <v>37.983929875821765</v>
+      </c>
+      <c r="K17" s="24">
+        <v>40.433212996389891</v>
+      </c>
+      <c r="L17" s="24">
+        <v>42.112776588151327</v>
+      </c>
+      <c r="M17" s="24">
+        <v>30.324400564174891</v>
+      </c>
+      <c r="N17" s="27">
+        <v>36.211699164345404</v>
+      </c>
+      <c r="O17" s="27">
+        <v>37.190082644628106</v>
+      </c>
+      <c r="P17" s="27">
+        <v>41.581458759372872</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="24">
+        <v>14.128728414442698</v>
+      </c>
+      <c r="E18" s="24">
+        <v>8.6477987421383649</v>
+      </c>
+      <c r="F18" s="24">
+        <v>12.529365700861394</v>
+      </c>
+      <c r="G18" s="24">
+        <v>10.878010878010878</v>
+      </c>
+      <c r="H18" s="24">
+        <v>13.846153846153847</v>
+      </c>
+      <c r="I18" s="24">
+        <v>7.6161462300076161</v>
+      </c>
+      <c r="J18" s="24">
+        <v>11.295180722891565</v>
+      </c>
+      <c r="K18" s="24">
+        <v>17.100371747211895</v>
+      </c>
+      <c r="L18" s="24">
+        <v>19.117647058823529</v>
+      </c>
+      <c r="M18" s="24">
+        <v>8.720930232558139</v>
+      </c>
+      <c r="N18" s="27">
+        <v>16.55867530597552</v>
+      </c>
+      <c r="O18" s="27">
+        <v>12.125534950071328</v>
+      </c>
+      <c r="P18" s="27">
+        <v>4.9435028248587569</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="E19" s="24">
+        <v>15.3</v>
+      </c>
+      <c r="F19" s="24">
+        <v>14.5</v>
+      </c>
+      <c r="G19" s="24">
+        <v>14.674493062966915</v>
+      </c>
+      <c r="H19" s="24">
+        <v>14.745896603177391</v>
+      </c>
+      <c r="I19" s="24">
+        <v>14.993537268418786</v>
+      </c>
+      <c r="J19" s="24">
+        <v>14.326647564469916</v>
+      </c>
+      <c r="K19" s="24">
+        <v>15.484721192652994</v>
+      </c>
+      <c r="L19" s="24">
+        <v>12.379421221864952</v>
+      </c>
+      <c r="M19" s="24">
+        <v>11.699120603015075</v>
+      </c>
+      <c r="N19" s="27">
+        <v>11.7619926199262</v>
+      </c>
+      <c r="O19" s="27">
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="P19" s="27">
+        <v>11.660516605166052</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="24">
+        <v>20.213156927600146</v>
+      </c>
+      <c r="E20" s="24">
+        <v>25.422189940076262</v>
+      </c>
+      <c r="F20" s="24">
+        <v>22.17453505007153</v>
+      </c>
+      <c r="G20" s="24">
+        <v>22.245762711864408</v>
+      </c>
+      <c r="H20" s="24">
+        <v>23.709902370990235</v>
+      </c>
+      <c r="I20" s="24">
+        <v>23.442847364818618</v>
+      </c>
+      <c r="J20" s="24">
+        <v>23.08464369354299</v>
+      </c>
+      <c r="K20" s="24">
+        <v>24.677234842294492</v>
+      </c>
+      <c r="L20" s="24">
+        <v>17.697704081632651</v>
+      </c>
+      <c r="M20" s="24">
+        <v>17.740429505135385</v>
+      </c>
+      <c r="N20" s="27">
+        <v>16.291108404384897</v>
+      </c>
+      <c r="O20" s="27">
+        <v>14.309136980175886</v>
+      </c>
+      <c r="P20" s="27">
+        <v>19.562043795620436</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="24">
+        <v>6.7214339058999251</v>
+      </c>
+      <c r="E21" s="24">
+        <v>4.979712283290298</v>
+      </c>
+      <c r="F21" s="24">
+        <v>6.7236053061966201</v>
+      </c>
+      <c r="G21" s="24">
+        <v>6.9892473118279561</v>
+      </c>
+      <c r="H21" s="24">
+        <v>5.6567085027399679</v>
+      </c>
+      <c r="I21" s="24">
+        <v>6.42249609442805</v>
+      </c>
+      <c r="J21" s="24">
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="K21" s="24">
+        <v>6.1441381600797076</v>
+      </c>
+      <c r="L21" s="24">
+        <v>6.9714656290531778</v>
+      </c>
+      <c r="M21" s="24">
+        <v>5.54675118858954</v>
+      </c>
+      <c r="N21" s="27">
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="O21" s="27">
+        <v>4.8698828184446814</v>
+      </c>
+      <c r="P21" s="27">
+        <v>3.5820895522388061</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="24">
+        <v>15.3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>17.3</v>
+      </c>
+      <c r="F22" s="24">
+        <v>16.7</v>
+      </c>
+      <c r="G22" s="24">
+        <v>19.097222222222221</v>
+      </c>
+      <c r="H22" s="24">
+        <v>24.400684931506849</v>
+      </c>
+      <c r="I22" s="24">
+        <v>25.273799494524006</v>
+      </c>
+      <c r="J22" s="24">
+        <v>23.198011599005799</v>
+      </c>
+      <c r="K22" s="24">
+        <v>21.60619649408887</v>
+      </c>
+      <c r="L22" s="24">
+        <v>16.044925792218208</v>
+      </c>
+      <c r="M22" s="24">
+        <v>17.377567140600316</v>
+      </c>
+      <c r="N22" s="27">
+        <v>15.56420233463035</v>
+      </c>
+      <c r="O22" s="27">
+        <v>20.290964777947934</v>
+      </c>
+      <c r="P22" s="27">
+        <v>13.187641296156746</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="24">
+        <v>21.563342318059302</v>
+      </c>
+      <c r="E23" s="24">
+        <v>26.642984014209592</v>
+      </c>
+      <c r="F23" s="24">
+        <v>25.438596491228072</v>
+      </c>
+      <c r="G23" s="24">
+        <v>29.437229437229441</v>
+      </c>
+      <c r="H23" s="24">
+        <v>38.363171355498721</v>
+      </c>
+      <c r="I23" s="24">
+        <v>41.038525963149077</v>
+      </c>
+      <c r="J23" s="24">
+        <v>35.390946502057616</v>
+      </c>
+      <c r="K23" s="24">
+        <v>36.407766990291265</v>
+      </c>
+      <c r="L23" s="24">
+        <v>23.847376788553259</v>
+      </c>
+      <c r="M23" s="24">
+        <v>26.583268178264269</v>
+      </c>
+      <c r="N23" s="27">
+        <v>27.734976887519259</v>
+      </c>
+      <c r="O23" s="27">
+        <v>29.545454545454547</v>
+      </c>
+      <c r="P23" s="27">
+        <v>20.119225037257827</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="24">
+        <v>8.9766606822262123</v>
+      </c>
+      <c r="E24" s="24">
+        <v>8.0071174377224192</v>
+      </c>
+      <c r="F24" s="24">
+        <v>7.922535211267606</v>
+      </c>
+      <c r="G24" s="24">
+        <v>8.7032201914708445</v>
+      </c>
+      <c r="H24" s="24">
+        <v>10.318142734307825</v>
+      </c>
+      <c r="I24" s="24">
+        <v>9.3220338983050848</v>
+      </c>
+      <c r="J24" s="24">
+        <v>10.842368640533778</v>
+      </c>
+      <c r="K24" s="24">
+        <v>6.5735414954806908</v>
+      </c>
+      <c r="L24" s="24">
+        <v>8.097165991902834</v>
+      </c>
+      <c r="M24" s="24">
+        <v>7.9808459696727851</v>
+      </c>
+      <c r="N24" s="27">
+        <v>3.1446540880503147</v>
+      </c>
+      <c r="O24" s="27">
+        <v>10.835913312693499</v>
+      </c>
+      <c r="P24" s="27">
+        <v>6.0975609756097571</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="24">
+        <v>31</v>
+      </c>
+      <c r="E25" s="24">
+        <v>28.1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>23.2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>19.714144898965007</v>
+      </c>
+      <c r="H25" s="24">
+        <v>20.031757664590202</v>
+      </c>
+      <c r="I25" s="24">
+        <v>18.904274533413606</v>
+      </c>
+      <c r="J25" s="24">
+        <v>24.468085106382979</v>
+      </c>
+      <c r="K25" s="24">
+        <v>19.953596287703014</v>
+      </c>
+      <c r="L25" s="24">
+        <v>20.480145636591192</v>
+      </c>
+      <c r="M25" s="24">
+        <v>18.185875264978243</v>
+      </c>
+      <c r="N25" s="27">
+        <v>19.923371647509576</v>
+      </c>
+      <c r="O25" s="27">
+        <v>14.816405411208933</v>
+      </c>
+      <c r="P25" s="27">
+        <v>15.255128879537086</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="24">
+        <v>46.846846846846844</v>
+      </c>
+      <c r="E26" s="24">
+        <v>43.123245725950497</v>
+      </c>
+      <c r="F26" s="24">
+        <v>38.957753604857068</v>
+      </c>
+      <c r="G26" s="24">
+        <v>29.58876629889669</v>
+      </c>
+      <c r="H26" s="24">
+        <v>29.813664596273291</v>
+      </c>
+      <c r="I26" s="24">
+        <v>29.116711524345483</v>
+      </c>
+      <c r="J26" s="24">
+        <v>36.014405762304925</v>
+      </c>
+      <c r="K26" s="24">
+        <v>29.688972667295005</v>
+      </c>
+      <c r="L26" s="24">
+        <v>30.036968576709793</v>
+      </c>
+      <c r="M26" s="24">
+        <v>26.959673765292251</v>
+      </c>
+      <c r="N26" s="27">
+        <v>29.12405513561583</v>
+      </c>
+      <c r="O26" s="27">
+        <v>20.715220235499345</v>
+      </c>
+      <c r="P26" s="27">
+        <v>22.426313541221703</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="24">
+        <v>15.632754342431761</v>
+      </c>
+      <c r="E27" s="24">
+        <v>13.533464566929135</v>
+      </c>
+      <c r="F27" s="24">
+        <v>8.056640625</v>
+      </c>
+      <c r="G27" s="24">
+        <v>10.174418604651162</v>
+      </c>
+      <c r="H27" s="24">
+        <v>10.571840461316675</v>
+      </c>
+      <c r="I27" s="24">
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="J27" s="24">
+        <v>13.271245634458673</v>
+      </c>
+      <c r="K27" s="24">
+        <v>10.511882998171846</v>
+      </c>
+      <c r="L27" s="24">
+        <v>11.208249271463796</v>
+      </c>
+      <c r="M27" s="24">
+        <v>9.6724554847219171</v>
+      </c>
+      <c r="N27" s="27">
+        <v>10.998490403277982</v>
+      </c>
+      <c r="O27" s="27">
+        <v>9.0947546531302876</v>
+      </c>
+      <c r="P27" s="27">
+        <v>8.2935931992535767</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="24">
+        <v>14.4</v>
+      </c>
+      <c r="E28" s="24">
+        <v>15.6</v>
+      </c>
+      <c r="F28" s="24">
         <v>13</v>
       </c>
-      <c r="H5" s="24">
-        <v>12.6</v>
-      </c>
-      <c r="I5" s="24">
-        <v>12.8</v>
-      </c>
-      <c r="J5" s="24">
-        <v>14.6</v>
-      </c>
-      <c r="K5" s="24">
-        <v>12</v>
-      </c>
-      <c r="L5" s="24">
-        <v>15.8</v>
-      </c>
-      <c r="M5" s="24">
-        <v>11</v>
-      </c>
-      <c r="N5" s="25">
-        <v>13.6</v>
-      </c>
-      <c r="O5" s="29">
-        <v>9</v>
-      </c>
-      <c r="P5" s="29">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="24">
-        <v>13.2</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="G28" s="24">
+        <v>10.080881491032704</v>
+      </c>
+      <c r="H28" s="24">
+        <v>9.2261561526928837</v>
+      </c>
+      <c r="I28" s="24">
+        <v>8.3663086489542113</v>
+      </c>
+      <c r="J28" s="24">
+        <v>11.490443044967407</v>
+      </c>
+      <c r="K28" s="24">
+        <v>7.7711818672423094</v>
+      </c>
+      <c r="L28" s="24">
+        <v>9.0726869922987667</v>
+      </c>
+      <c r="M28" s="24">
+        <v>8.4588405199092218</v>
+      </c>
+      <c r="N28" s="27">
+        <v>8.5754640839386589</v>
+      </c>
+      <c r="O28" s="27">
+        <v>5.4203212772247955</v>
+      </c>
+      <c r="P28" s="27">
+        <v>8.5527580242167982</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="24">
+        <v>21.047092870297288</v>
+      </c>
+      <c r="E29" s="24">
+        <v>21.892103205629397</v>
+      </c>
+      <c r="F29" s="24">
+        <v>19.784172661870507</v>
+      </c>
+      <c r="G29" s="24">
+        <v>14.650164182874464</v>
+      </c>
+      <c r="H29" s="24">
+        <v>12.416190712689348</v>
+      </c>
+      <c r="I29" s="24">
+        <v>11.916342412451362</v>
+      </c>
+      <c r="J29" s="24">
+        <v>16.856600189933523</v>
+      </c>
+      <c r="K29" s="24">
+        <v>10.655547834144082</v>
+      </c>
+      <c r="L29" s="24">
+        <v>13.110307414104883</v>
+      </c>
+      <c r="M29" s="24">
+        <v>10.154525386313466</v>
+      </c>
+      <c r="N29" s="27">
+        <v>13.805004314063849</v>
+      </c>
+      <c r="O29" s="27">
+        <v>7.7894736842105265</v>
+      </c>
+      <c r="P29" s="27">
+        <v>12.297601967616316</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="24">
+        <v>8.6837294332723935</v>
+      </c>
+      <c r="E30" s="24">
+        <v>10.144274120829575</v>
+      </c>
+      <c r="F30" s="24">
+        <v>7.1063735287586054</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6.1242344706911638</v>
+      </c>
+      <c r="H30" s="24">
+        <v>6.4599483204134378</v>
+      </c>
+      <c r="I30" s="24">
+        <v>5.2820621170504962</v>
+      </c>
+      <c r="J30" s="24">
+        <v>6.8195908245505272</v>
+      </c>
+      <c r="K30" s="24">
+        <v>5.254648342764753</v>
+      </c>
+      <c r="L30" s="24">
+        <v>5.5390702274975272</v>
+      </c>
+      <c r="M30" s="24">
+        <v>6.9713400464756008</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3.9802880970432142</v>
+      </c>
+      <c r="O30" s="27">
+        <v>3.3351862145636466</v>
+      </c>
+      <c r="P30" s="27">
+        <v>5.246969422833363</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="24">
+        <v>17.2</v>
+      </c>
+      <c r="E31" s="24">
         <v>16.7</v>
       </c>
-      <c r="F6" s="24">
-        <v>16.5</v>
-      </c>
-      <c r="G6" s="24">
-        <v>12.9</v>
-      </c>
-      <c r="H6" s="24">
-        <v>15.2</v>
-      </c>
-      <c r="I6" s="24">
-        <v>17.5</v>
-      </c>
-      <c r="J6" s="24">
-        <v>14.6</v>
-      </c>
-      <c r="K6" s="24">
-        <v>11.8</v>
-      </c>
-      <c r="L6" s="24">
-        <v>12.7</v>
-      </c>
-      <c r="M6" s="24">
-        <v>11.1</v>
-      </c>
-      <c r="N6" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="O6" s="29">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="29">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="24">
-        <v>32.5</v>
-      </c>
-      <c r="E7" s="24">
-        <v>29.3</v>
-      </c>
-      <c r="F7" s="24">
-        <v>23.2</v>
-      </c>
-      <c r="G7" s="24">
-        <v>27.3</v>
-      </c>
-      <c r="H7" s="24">
-        <v>32.5</v>
-      </c>
-      <c r="I7" s="24">
-        <v>26.6</v>
-      </c>
-      <c r="J7" s="24">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K7" s="24">
-        <v>23.9</v>
-      </c>
-      <c r="L7" s="24">
-        <v>27.8</v>
-      </c>
-      <c r="M7" s="24">
-        <v>22.8</v>
-      </c>
-      <c r="N7" s="25">
-        <v>25.8</v>
-      </c>
-      <c r="O7" s="29">
-        <v>18.5</v>
-      </c>
-      <c r="P7" s="29">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="24">
-        <v>29.2</v>
-      </c>
-      <c r="E8" s="24">
-        <v>26.4</v>
-      </c>
-      <c r="F8" s="24">
-        <v>28.3</v>
-      </c>
-      <c r="G8" s="24">
-        <v>27.6</v>
-      </c>
-      <c r="H8" s="24">
-        <v>26.9</v>
-      </c>
-      <c r="I8" s="24">
-        <v>27</v>
-      </c>
-      <c r="J8" s="24">
-        <v>24.8</v>
-      </c>
-      <c r="K8" s="24">
-        <v>28.9</v>
-      </c>
-      <c r="L8" s="24">
-        <v>30.8</v>
-      </c>
-      <c r="M8" s="24">
-        <v>19.7</v>
-      </c>
-      <c r="N8" s="25">
-        <v>26.5</v>
-      </c>
-      <c r="O8" s="29">
-        <v>24.9</v>
-      </c>
-      <c r="P8" s="29">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="24">
-        <v>13.5</v>
-      </c>
-      <c r="E9" s="24">
-        <v>15.3</v>
-      </c>
-      <c r="F9" s="24">
-        <v>14.5</v>
-      </c>
-      <c r="G9" s="24">
-        <v>14.7</v>
-      </c>
-      <c r="H9" s="24">
-        <v>14.7</v>
-      </c>
-      <c r="I9" s="24">
-        <v>15</v>
-      </c>
-      <c r="J9" s="24">
-        <v>14.3</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="F31" s="24">
         <v>15.5</v>
       </c>
-      <c r="L9" s="24">
-        <v>12.4</v>
-      </c>
-      <c r="M9" s="24">
-        <v>11.7</v>
-      </c>
-      <c r="N9" s="25">
-        <v>11.8</v>
-      </c>
-      <c r="O9" s="29">
-        <v>9.6</v>
-      </c>
-      <c r="P9" s="29">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="G31" s="24">
+        <v>14.36893203883495</v>
+      </c>
+      <c r="H31" s="24">
+        <v>12.900703674745895</v>
+      </c>
+      <c r="I31" s="24">
+        <v>9.6861681518791158</v>
+      </c>
+      <c r="J31" s="24">
+        <v>12.176560121765601</v>
+      </c>
+      <c r="K31" s="24">
+        <v>10.459469555472545</v>
+      </c>
+      <c r="L31" s="24">
+        <v>12.454212454212454</v>
+      </c>
+      <c r="M31" s="24">
+        <v>10.043041606886657</v>
+      </c>
+      <c r="N31" s="27">
+        <v>7.7084793272599867</v>
+      </c>
+      <c r="O31" s="27">
+        <v>6.1203672220333214</v>
+      </c>
+      <c r="P31" s="27">
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="Q31" s="27">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="24">
-        <v>15.3</v>
-      </c>
-      <c r="E10" s="24">
-        <v>17.3</v>
-      </c>
-      <c r="F10" s="24">
-        <v>16.7</v>
-      </c>
-      <c r="G10" s="24">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="H10" s="24">
-        <v>24.4</v>
-      </c>
-      <c r="I10" s="24">
-        <v>25.3</v>
-      </c>
-      <c r="J10" s="24">
-        <v>23.2</v>
-      </c>
-      <c r="K10" s="24">
-        <v>21.6</v>
-      </c>
-      <c r="L10" s="24">
-        <v>16</v>
-      </c>
-      <c r="M10" s="24">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="N10" s="25">
-        <v>15.6</v>
-      </c>
-      <c r="O10" s="29">
-        <v>20.3</v>
-      </c>
-      <c r="P10" s="29">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="24">
-        <v>31</v>
-      </c>
-      <c r="E11" s="24">
-        <v>28.1</v>
-      </c>
-      <c r="F11" s="24">
-        <v>23.2</v>
-      </c>
-      <c r="G11" s="24">
-        <v>19.7</v>
-      </c>
-      <c r="H11" s="24">
-        <v>20</v>
-      </c>
-      <c r="I11" s="24">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J11" s="24">
-        <v>24.5</v>
-      </c>
-      <c r="K11" s="24">
-        <v>20</v>
-      </c>
-      <c r="L11" s="24">
-        <v>20.5</v>
-      </c>
-      <c r="M11" s="24">
-        <v>18.2</v>
-      </c>
-      <c r="N11" s="25">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="O11" s="29">
-        <v>14.8</v>
-      </c>
-      <c r="P11" s="29">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="24">
-        <v>14.4</v>
-      </c>
-      <c r="E12" s="24">
-        <v>15.6</v>
-      </c>
-      <c r="F12" s="24">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24">
-        <v>10.1</v>
-      </c>
-      <c r="H12" s="24">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I12" s="24">
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="24">
+        <v>26.037428803905616</v>
+      </c>
+      <c r="E32" s="24">
+        <v>23.481781376518217</v>
+      </c>
+      <c r="F32" s="24">
+        <v>22.544283413848632</v>
+      </c>
+      <c r="G32" s="24">
+        <v>21.844660194174757</v>
+      </c>
+      <c r="H32" s="24">
+        <v>18.760195758564439</v>
+      </c>
+      <c r="I32" s="24">
+        <v>14.539579967689823</v>
+      </c>
+      <c r="J32" s="24">
+        <v>15.835312747426761</v>
+      </c>
+      <c r="K32" s="24">
+        <v>13.188518231186967</v>
+      </c>
+      <c r="L32" s="24">
+        <v>20.516717325227965</v>
+      </c>
+      <c r="M32" s="24">
+        <v>12.63001485884101</v>
+      </c>
+      <c r="N32" s="27">
+        <v>12.327773749093545</v>
+      </c>
+      <c r="O32" s="27">
+        <v>9.8314606741573023</v>
+      </c>
+      <c r="P32" s="27">
+        <v>12.811867835468643</v>
+      </c>
+      <c r="Q32" s="27">
         <v>8.4</v>
       </c>
-      <c r="J12" s="24">
-        <v>11.5</v>
-      </c>
-      <c r="K12" s="24">
-        <v>7.8</v>
-      </c>
-      <c r="L12" s="24">
-        <v>9.1</v>
-      </c>
-      <c r="M12" s="24">
-        <v>8.5</v>
-      </c>
-      <c r="N12" s="25">
-        <v>8.6</v>
-      </c>
-      <c r="O12" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="P12" s="29">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="26">
-        <v>17.2</v>
-      </c>
-      <c r="E13" s="26">
-        <v>16.7</v>
-      </c>
-      <c r="F13" s="26">
-        <v>15.5</v>
-      </c>
-      <c r="G13" s="26">
-        <v>14.4</v>
-      </c>
-      <c r="H13" s="26">
-        <v>12.9</v>
-      </c>
-      <c r="I13" s="26">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J13" s="26">
-        <v>12.2</v>
-      </c>
-      <c r="K13" s="26">
-        <v>10.5</v>
-      </c>
-      <c r="L13" s="26">
-        <v>12.5</v>
-      </c>
-      <c r="M13" s="26">
-        <v>10</v>
-      </c>
-      <c r="N13" s="27">
-        <v>7.7</v>
-      </c>
-      <c r="O13" s="30">
-        <v>6.1</v>
-      </c>
-      <c r="P13" s="30">
-        <v>7.8</v>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="25">
+        <v>8.995502248875562</v>
+      </c>
+      <c r="E33" s="25">
+        <v>10.44776119402985</v>
+      </c>
+      <c r="F33" s="25">
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="G33" s="25">
+        <v>7.4682598954443611</v>
+      </c>
+      <c r="H33" s="25">
+        <v>7.5075075075075075</v>
+      </c>
+      <c r="I33" s="25">
+        <v>5.2122114668652273</v>
+      </c>
+      <c r="J33" s="25">
+        <v>8.791208791208792</v>
+      </c>
+      <c r="K33" s="25">
+        <v>7.9250720461095092</v>
+      </c>
+      <c r="L33" s="25">
+        <v>4.9504950495049505</v>
+      </c>
+      <c r="M33" s="25">
+        <v>7.6282940360610274</v>
+      </c>
+      <c r="N33" s="28">
+        <v>3.3898305084745761</v>
+      </c>
+      <c r="O33" s="28">
+        <v>2.6367831245880029</v>
+      </c>
+      <c r="P33" s="28">
+        <v>3.1705770450221946</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.6.1.xlsx
+++ b/excel_files/3.6.1.xlsx
@@ -687,9 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -699,7 +701,7 @@
     <col min="4" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5" customHeight="1">
+    <row r="1" spans="1:18" ht="43.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -721,7 +723,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -737,7 +739,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -789,8 +791,11 @@
       <c r="Q3" s="21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -842,8 +847,11 @@
       <c r="Q4" s="26">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="26">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -895,8 +903,11 @@
       <c r="Q5" s="26">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="26">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
@@ -948,8 +959,11 @@
       <c r="Q6" s="26">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="26">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1015,11 @@
       <c r="Q7" s="27">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1054,8 +1071,11 @@
       <c r="Q8" s="27">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="27">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1107,8 +1127,11 @@
       <c r="Q9" s="27">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="27">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="Q10" s="27">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="27">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1213,8 +1239,11 @@
       <c r="Q11" s="27">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="27">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1266,8 +1295,11 @@
       <c r="Q12" s="27">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1319,8 +1351,11 @@
       <c r="Q13" s="27">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="27">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1372,8 +1407,11 @@
       <c r="Q14" s="27">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="27">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1425,8 +1463,11 @@
       <c r="Q15" s="27">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="27">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1478,8 +1519,11 @@
       <c r="Q16" s="27">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="27">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1531,8 +1575,11 @@
       <c r="Q17" s="27">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="27">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1584,8 +1631,11 @@
       <c r="Q18" s="27">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="27">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1637,8 +1687,11 @@
       <c r="Q19" s="27">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="27">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1690,8 +1743,11 @@
       <c r="Q20" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="27">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1743,8 +1799,11 @@
       <c r="Q21" s="27">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="27">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1796,8 +1855,11 @@
       <c r="Q22" s="27">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="27">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -1849,8 +1911,11 @@
       <c r="Q23" s="27">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="27">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1902,8 +1967,11 @@
       <c r="Q24" s="27">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="27">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
@@ -1955,8 +2023,11 @@
       <c r="Q25" s="27">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="27">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -2008,8 +2079,11 @@
       <c r="Q26" s="27">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="27">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2061,8 +2135,11 @@
       <c r="Q27" s="27">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="27">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -2114,8 +2191,11 @@
       <c r="Q28" s="27">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="27">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2167,8 +2247,11 @@
       <c r="Q29" s="27">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="27">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2220,8 +2303,11 @@
       <c r="Q30" s="27">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
         <v>28</v>
       </c>
@@ -2273,8 +2359,11 @@
       <c r="Q31" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="27">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2326,8 +2415,11 @@
       <c r="Q32" s="27">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1">
+      <c r="R32" s="27">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2378,6 +2470,9 @@
       </c>
       <c r="Q33" s="28">
         <v>3.7</v>
+      </c>
+      <c r="R33" s="28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.6.1.xlsx
+++ b/excel_files/3.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t> women</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,7 +704,7 @@
     <col min="4" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="43.5" customHeight="1">
+    <row r="1" spans="1:19" ht="43.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -723,7 +726,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -739,7 +742,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -794,8 +797,11 @@
       <c r="R3" s="21">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -850,8 +856,11 @@
       <c r="R4" s="26">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="26">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -906,8 +915,11 @@
       <c r="R5" s="26">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="26">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
@@ -962,8 +974,11 @@
       <c r="R6" s="26">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="26">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1018,8 +1033,11 @@
       <c r="R7" s="27">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="27">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1074,8 +1092,11 @@
       <c r="R8" s="27">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="27">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1130,8 +1151,11 @@
       <c r="R9" s="27">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="27">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1210,11 @@
       <c r="R10" s="27">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1242,8 +1269,11 @@
       <c r="R11" s="27">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1298,8 +1328,11 @@
       <c r="R12" s="27">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -1354,8 +1387,11 @@
       <c r="R13" s="27">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="27">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1410,8 +1446,11 @@
       <c r="R14" s="27">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="27">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1466,8 +1505,11 @@
       <c r="R15" s="27">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1522,8 +1564,11 @@
       <c r="R16" s="27">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="27">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1578,8 +1623,11 @@
       <c r="R17" s="27">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="27">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1634,8 +1682,11 @@
       <c r="R18" s="27">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="27">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1741,11 @@
       <c r="R19" s="27">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1746,8 +1800,11 @@
       <c r="R20" s="27">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1802,8 +1859,11 @@
       <c r="R21" s="27">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1858,8 +1918,11 @@
       <c r="R22" s="27">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -1914,8 +1977,11 @@
       <c r="R23" s="27">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="27">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1970,8 +2036,11 @@
       <c r="R24" s="27">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
@@ -2026,8 +2095,11 @@
       <c r="R25" s="27">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -2082,8 +2154,11 @@
       <c r="R26" s="27">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="27">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2138,8 +2213,11 @@
       <c r="R27" s="27">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2272,11 @@
       <c r="R28" s="27">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="27">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2250,8 +2331,11 @@
       <c r="R29" s="27">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="27">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2306,8 +2390,11 @@
       <c r="R30" s="27">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="27">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="10" t="s">
         <v>28</v>
       </c>
@@ -2362,8 +2449,11 @@
       <c r="R31" s="27">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2418,8 +2508,11 @@
       <c r="R32" s="27">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1">
+      <c r="S32" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2473,6 +2566,9 @@
       </c>
       <c r="R33" s="28">
         <v>3</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/3.6.1.xlsx
+++ b/excel_files/3.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +388,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,21 +706,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="3" width="34" customWidth="1"/>
+    <col min="4" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.5" customHeight="1">
+    <row r="1" spans="1:20" ht="43.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -742,7 +754,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -800,8 +812,11 @@
       <c r="S3" s="21">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -859,185 +874,197 @@
       <c r="S4" s="26">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="8" t="s">
+      <c r="T4" s="26">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>28.089887640449433</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="24">
         <v>30.111297453880166</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="24">
         <v>27.816464034328302</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="24">
         <v>24.728543804849025</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <v>25.526132148235209</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="24">
         <v>25.41241020828069</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="24">
         <v>26.876967146444109</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <v>23.348460179443656</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="24">
         <v>23.093356844925225</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="24">
         <v>19.889099179865195</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="27">
         <v>20.701777228045053</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="27">
         <v>16.264310999138949</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="27">
         <v>19.290797852416034</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="27">
         <v>14.7</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="27">
         <v>17.899999999999999</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="27">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="T5" s="27">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>8.9151932873838788</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>8.6453192831434844</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>7.5551969485806501</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>7.6122811469170273</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>8.5243553008595985</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <v>7.8246158184125196</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="24">
         <v>9.1279994467879124</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <v>7.3242684208741649</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="24">
         <v>8.2771000232689556</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="24">
         <v>6.9424073530849713</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="27">
         <v>6.9091258036656749</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <v>5.8041036581539815</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="27">
         <v>4.8264625411171567</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="27">
         <v>4.8</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="27">
         <v>7.3</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="27">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="9" t="s">
+      <c r="T6" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>13.7</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>15.8</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>13.031550068587105</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>12.587098224320073</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>12.780960775672101</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <v>14.645703209132027</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="22">
         <v>11.994949494949497</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <v>15.824085491163173</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <v>11.041959445894397</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <v>13.569321533923304</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="26">
         <v>9.0489025798998846</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="26">
         <v>10.165662650602409</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="26">
         <v>10.7</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <v>12.6</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1095,8 +1122,11 @@
       <c r="S8" s="27">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="27">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1154,67 +1184,73 @@
       <c r="S9" s="27">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="9" t="s">
+      <c r="T9" s="27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="32" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>13.2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>16.7</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>16.5</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>12.913875133508107</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>15.209489190740385</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>17.456593148756454</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>14.613970588235295</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>11.793302124594888</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>12.693935119887165</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>11.0573600552868</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>8.6462659998304652</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <v>7.9002079002079011</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="26">
         <v>8.6417740094570359</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="26">
         <v>6.2</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="26">
         <v>10.3</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="26">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="26">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1272,8 +1308,11 @@
       <c r="S11" s="27">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="27">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1331,67 +1370,73 @@
       <c r="S12" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="9" t="s">
+      <c r="T12" s="27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="32" customFormat="1">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>32.5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>29.3</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>23.2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>27.319936780311583</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>32.489356934797222</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>26.625249611715113</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>35.307017543859651</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>23.850823937554207</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>27.837259100642399</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <v>22.813688212927758</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>25.838716399249844</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <v>18.503289473684212</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <v>19.476567255021305</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="26">
         <v>17.2</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="26">
         <v>24.8</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="26">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="26">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1449,8 +1494,11 @@
       <c r="S14" s="27">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1508,67 +1556,73 @@
       <c r="S15" s="27">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="9" t="s">
+      <c r="T15" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="32" customFormat="1">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>29.2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>26.4</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>28.3</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>27.617951668584585</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>26.934749620637326</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>27.016885553470921</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>24.84241750092696</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>28.937728937728942</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>30.785947120608469</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <v>19.685039370078741</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <v>26.548672566371685</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>24.877365101611776</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="26">
         <v>23.586541796739507</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="26">
         <v>16.5</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="26">
         <v>23.9</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="26">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="26">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1626,8 +1680,11 @@
       <c r="S17" s="27">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="27">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1685,67 +1742,73 @@
       <c r="S18" s="27">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="9" t="s">
+      <c r="T18" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="32" customFormat="1">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>13.5</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>15.3</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <v>14.5</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <v>14.674493062966915</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>14.745896603177391</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <v>14.993537268418786</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>14.326647564469916</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <v>15.484721192652994</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="22">
         <v>12.379421221864952</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="22">
         <v>11.699120603015075</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="26">
         <v>11.7619926199262</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <v>9.6385542168674707</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="26">
         <v>11.660516605166052</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="26">
         <v>9.6</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="26">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="26">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1803,8 +1866,11 @@
       <c r="S20" s="27">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="27">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1862,67 +1928,73 @@
       <c r="S21" s="27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="9" t="s">
+      <c r="T21" s="27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="32" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <v>15.3</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>17.3</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <v>16.7</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <v>19.097222222222221</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="22">
         <v>24.400684931506849</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="22">
         <v>25.273799494524006</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="22">
         <v>23.198011599005799</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <v>21.60619649408887</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="22">
         <v>16.044925792218208</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="22">
         <v>17.377567140600316</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="26">
         <v>15.56420233463035</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="26">
         <v>20.290964777947934</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="26">
         <v>13.187641296156746</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="26">
         <v>12.6</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="26">
         <v>12.1</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -1980,8 +2052,11 @@
       <c r="S23" s="27">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2039,67 +2114,73 @@
       <c r="S24" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="9" t="s">
+      <c r="T24" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="32" customFormat="1">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>31</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>28.1</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>23.2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>19.714144898965007</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>20.031757664590202</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <v>18.904274533413606</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>24.468085106382979</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>19.953596287703014</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>20.480145636591192</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <v>18.185875264978243</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="26">
         <v>19.923371647509576</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="26">
         <v>14.816405411208933</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="26">
         <v>15.255128879537086</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="26">
         <v>13.3</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="26">
         <v>17.3</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="26">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -2157,8 +2238,11 @@
       <c r="S26" s="27">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2216,67 +2300,73 @@
       <c r="S27" s="27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="10" t="s">
+      <c r="T27" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="32" customFormat="1">
+      <c r="A28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <v>14.4</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>15.6</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>13</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <v>10.080881491032704</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>9.2261561526928837</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="22">
         <v>8.3663086489542113</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="22">
         <v>11.490443044967407</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="22">
         <v>7.7711818672423094</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="22">
         <v>9.0726869922987667</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="22">
         <v>8.4588405199092218</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="26">
         <v>8.5754640839386589</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="26">
         <v>5.4203212772247955</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="26">
         <v>8.5527580242167982</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="26">
         <v>6.3</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="26">
         <v>7.8</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="26">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="26">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S29" s="27">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="27">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2393,67 +2486,73 @@
       <c r="S30" s="27">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="10" t="s">
+      <c r="T30" s="27">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="32" customFormat="1">
+      <c r="A31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>17.2</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>16.7</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>15.5</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="22">
         <v>14.36893203883495</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="22">
         <v>12.900703674745895</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="22">
         <v>9.6861681518791158</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>12.176560121765601</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="22">
         <v>10.459469555472545</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="22">
         <v>12.454212454212454</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="22">
         <v>10.043041606886657</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <v>7.7084793272599867</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="26">
         <v>6.1203672220333214</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="26">
         <v>7.8431372549019605</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="26">
         <v>6</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="26">
         <v>6.7</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="26">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2511,8 +2610,11 @@
       <c r="S32" s="27">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T32" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2569,6 +2671,9 @@
       </c>
       <c r="S33" s="28" t="s">
         <v>42</v>
+      </c>
+      <c r="T33" s="28">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
